--- a/public/Plantillas/1.4-Evaluación-Estudiantes.xlsx
+++ b/public/Plantillas/1.4-Evaluación-Estudiantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20411"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\Tesis\Estilos\sistema_vinculacion\sistema_vinculacion\public\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tesis\Tesis_Final_Version\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D55B473-9860-4797-9B13-3EF5E8FA0A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310AB516-3F07-4052-A0F7-03CA01CFF420}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -320,45 +320,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -367,6 +328,45 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -440,15 +440,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>770922</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>167248</xdr:rowOff>
+      <xdr:rowOff>179295</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -462,9 +462,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10174898" y="5456424"/>
-          <a:ext cx="3164584" cy="12047"/>
+        <a:xfrm flipV="1">
+          <a:off x="10174941" y="5468471"/>
+          <a:ext cx="3366247" cy="22411"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -813,83 +813,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A6" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.59765625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.8984375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.3984375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.796875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.69921875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.09765625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="32.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.75" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.125" style="3" customWidth="1"/>
     <col min="7" max="7" width="12" style="3" customWidth="1"/>
-    <col min="8" max="9" width="11.19921875" style="3" customWidth="1"/>
+    <col min="8" max="9" width="11.25" style="3" customWidth="1"/>
     <col min="10" max="10" width="12" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.09765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="19.125" style="3" customWidth="1"/>
     <col min="12" max="13" width="11" style="3"/>
     <col min="14" max="14" width="26.5" style="3" customWidth="1"/>
     <col min="15" max="15" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="22"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="25"/>
       <c r="K1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="10" t="s">
+      <c r="L1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="17" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="20" t="s">
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="11"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
       <c r="K2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="11"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="15"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="11"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="6" t="s">
         <v>10</v>
       </c>
@@ -920,9 +920,9 @@
       <c r="M3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="16"/>
+      <c r="N3" s="19"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -938,47 +938,54 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
       <c r="L12" s="9"/>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:J1"/>
+    <mergeCell ref="D2:J2"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B13:D13"/>
@@ -986,13 +993,6 @@
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="C1:C3"/>
-    <mergeCell ref="D1:J1"/>
-    <mergeCell ref="D2:J2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>

--- a/public/Plantillas/1.4-Evaluación-Estudiantes.xlsx
+++ b/public/Plantillas/1.4-Evaluación-Estudiantes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tesis\Tesis_Final_Version\Tesis_Final_Version\public\Plantillas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\OneDrive\Escritorio\TesisVersionBeta\Tesis_Final_Version\public\Plantillas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310AB516-3F07-4052-A0F7-03CA01CFF420}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E756B6-1379-41C3-A0A5-9B8FFEE759DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -439,16 +439,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1345</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>26894</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:rowOff>17930</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -462,9 +462,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="10174941" y="5468471"/>
-          <a:ext cx="3366247" cy="22411"/>
+        <a:xfrm>
+          <a:off x="9575651" y="5488641"/>
+          <a:ext cx="3916231" cy="6724"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -813,28 +813,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="B1" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScale="85" zoomScaleNormal="80" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="14.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="23.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.75" style="3" customWidth="1"/>
-    <col min="6" max="6" width="13.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="12" style="3" customWidth="1"/>
-    <col min="8" max="9" width="11.25" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12" style="3" customWidth="1"/>
-    <col min="11" max="11" width="19.125" style="3" customWidth="1"/>
-    <col min="12" max="13" width="11" style="3"/>
+    <col min="1" max="1" width="32.59765625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="23.3984375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="12.8984375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.296875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.19921875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9.296875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.09765625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.19921875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="9.796875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="8.59765625" style="3" customWidth="1"/>
     <col min="14" max="14" width="26.5" style="3" customWidth="1"/>
     <col min="15" max="15" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -866,7 +868,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="2" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="2" customFormat="1" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -886,7 +888,7 @@
       <c r="M2" s="16"/>
       <c r="N2" s="18"/>
     </row>
-    <row r="3" spans="1:14" s="1" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" s="1" customFormat="1" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -922,7 +924,7 @@
       </c>
       <c r="N3" s="19"/>
     </row>
-    <row r="4" spans="1:14" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" s="1" customFormat="1" ht="84" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -938,31 +940,34 @@
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:14" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
-      <c r="L12" s="9"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" ht="31.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
       <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" s="1" customFormat="1" ht="30.6" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -973,10 +978,11 @@
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="12"/>
-      <c r="L14" s="9"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
     </row>
-    <row r="15" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="15" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:14" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="L1:L2"/>
@@ -990,9 +996,9 @@
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B14:D14"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I12:M12"/>
+    <mergeCell ref="I13:M13"/>
+    <mergeCell ref="I14:M14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="55" orientation="landscape" r:id="rId1"/>
